--- a/Projects/HENKELUS/Data/KPI Template - Working 5-7-2020 v3.xlsx
+++ b/Projects/HENKELUS/Data/KPI Template - Working 5-7-2020 v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="198">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -695,6 +695,9 @@
     <t xml:space="preserve">BLOCK EXCLUDE VALUE 1</t>
   </si>
   <si>
+    <t xml:space="preserve">minimum_ratio</t>
+  </si>
+  <si>
     <t xml:space="preserve">"IF &gt;= 75% of [A] facings are blocked THEN 'Yes' ELSE 'No'
 ALLOW-CONNECTED: Others, Empties
 ALLOW-CONNECTED Smart Tag: additional display
@@ -703,6 +706,9 @@
   </si>
   <si>
     <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type</t>
   </si>
   <si>
     <t xml:space="preserve">Other,Empty</t>
@@ -983,7 +989,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1022,6 +1028,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1070,187 +1080,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="320">
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
+  <dxfs count="140">
     <dxf/>
     <dxf/>
     <dxf/>
@@ -1469,13 +1299,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="0.00404858299595142"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2320,18 +2150,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.31983805668016"/>
@@ -2362,7 +2192,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>117</v>
@@ -2409,8 +2239,8 @@
       <c r="G2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>168</v>
+      <c r="I2" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>133</v>
@@ -2419,7 +2249,7 @@
         <v>128</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2470,19 +2300,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.31983805668016"/>
@@ -2513,10 +2343,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>117</v>
@@ -2571,13 +2401,13 @@
         <v>79</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>168</v>
+      <c r="J2" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>133</v>
@@ -2586,7 +2416,7 @@
         <v>128</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2637,18 +2467,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.31983805668016"/>
@@ -2720,12 +2550,12 @@
         <v>83</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:I2">
@@ -2775,18 +2605,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.31983805668016"/>
@@ -2817,7 +2647,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>117</v>
@@ -2871,8 +2701,8 @@
       <c r="G2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>168</v>
+      <c r="I2" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>133</v>
@@ -2881,7 +2711,7 @@
         <v>128</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2933,22 +2763,22 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.1983805668016"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
@@ -2995,7 +2825,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="12"/>
+      <c r="Q1" s="13"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -3033,9 +2863,9 @@
         <v>131</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="M2" s="11"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:K2">
@@ -3086,23 +2916,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
@@ -3186,7 +3016,7 @@
         <v>131</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="R2" s="11"/>
+      <c r="R2" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
@@ -3260,23 +3090,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
@@ -3322,7 +3152,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="12"/>
+      <c r="Q1" s="13"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -3360,9 +3190,9 @@
         <v>131</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="M2" s="11"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:K2">
@@ -3413,18 +3243,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.8785425101215"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.5182186234818"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.31983805668016"/>
@@ -3496,10 +3326,10 @@
         <v>111</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="P2" s="11"/>
+      <c r="P2" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3525,286 +3355,286 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="14" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="15" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="16" t="n">
+      <c r="A1" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="n">
+      <c r="C1" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="n">
+      <c r="D1" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="n">
+      <c r="E1" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="n">
+      <c r="F1" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="n">
+      <c r="G1" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="n">
+      <c r="H1" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="n">
+      <c r="I1" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="n">
+      <c r="J1" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="n">
+      <c r="K1" s="17" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
+      <c r="A2" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
+      <c r="A3" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="E4" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+      <c r="A5" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="C6" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="F6" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="C7" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="C8" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="G8" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="D9" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="H9" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="D10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="J9" s="18" t="s">
+      <c r="H10" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10" s="18" t="s">
+      <c r="I10" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>195</v>
+      <c r="J10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3832,27 +3662,27 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="5" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="84.6234817813765"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,49 +3902,26 @@
   <conditionalFormatting sqref="G2:L2">
     <cfRule type="containsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:K3,G4,I4:K4">
+  <conditionalFormatting sqref="H4">
     <cfRule type="containsText" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:K3,G4,I4:K4">
+  <conditionalFormatting sqref="H4">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>$AK3="Ready"</formula>
+      <formula>$AK4="Ready"</formula>
     </cfRule>
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>$AK3="Removed"</formula>
+      <formula>$AK4="Removed"</formula>
     </cfRule>
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>$AK3="Done"</formula>
+      <formula>$AK4="Done"</formula>
     </cfRule>
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>$AK3="Built"</formula>
+      <formula>$AK4="Built"</formula>
     </cfRule>
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>$AK3="Templated"</formula>
+      <formula>$AK4="Templated"</formula>
     </cfRule>
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
-      <formula>$AK3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>$AK4="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>$AK4="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>$AK4="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>$AK4="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>$AK4="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$AK4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4135,27 +3942,27 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="69.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="69.9473684210526"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.0647773279352"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.49797570850202"/>
@@ -4253,29 +4060,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2,G2">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$AA2="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$AA2="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$AA2="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$AA2="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>$AA2="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>$AA2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2,G2">
-    <cfRule type="containsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="6"/>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4293,38 +4077,38 @@
   </sheetPr>
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="86.2307692307692"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="86.9797570850202"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4370,7 +4154,7 @@
       <c r="O1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="10" t="s">
         <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -4680,19 +4464,19 @@
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$AF3="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$AF3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$AF3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$AF3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$AF3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$AF3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4711,43 +4495,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="16" topLeftCell="V17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="AF5" activeCellId="0" sqref="AF5"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="24" min="18" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="24" min="18" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.67611336032389"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="6.31983805668016"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4823,31 +4607,34 @@
       <c r="X1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4866,10 +4653,10 @@
         <v>30</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>131</v>
@@ -4898,10 +4685,10 @@
         <v>144</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>149</v>
@@ -4911,25 +4698,28 @@
       </c>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
-      <c r="Y2" s="8" t="s">
-        <v>168</v>
+      <c r="Y2" s="8" t="n">
+        <v>0.75</v>
       </c>
       <c r="Z2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="10" t="n">
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="11" t="n">
         <v>0.75</v>
       </c>
-      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -4946,10 +4736,10 @@
         <v>34</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>143</v>
@@ -4979,25 +4769,28 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Y3" s="8" t="s">
-        <v>168</v>
+      <c r="Y3" s="8" t="n">
+        <v>0.75</v>
       </c>
       <c r="Z3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="10" t="n">
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="11" t="n">
         <v>0.75</v>
       </c>
-      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -5014,10 +4807,10 @@
         <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>143</v>
@@ -5043,27 +4836,30 @@
       <c r="X4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="Y4" s="8" t="s">
-        <v>168</v>
+      <c r="Y4" s="8" t="n">
+        <v>0.75</v>
       </c>
       <c r="Z4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA4" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="10" t="n">
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="11" t="n">
         <v>0.75</v>
       </c>
-      <c r="AG4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AH4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="84.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">INDEX('KPI Summary'!$A$2:$A$35,MATCH(Blocking!D5,'KPI Summary'!$D$2:$D$35,0),1)</f>
         <v>17</v>
@@ -5078,16 +4874,16 @@
         <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -5106,10 +4902,10 @@
         <v>144</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U5" s="8" t="s">
         <v>149</v>
@@ -5119,25 +4915,28 @@
       </c>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="8" t="s">
-        <v>168</v>
+      <c r="Y5" s="8" t="n">
+        <v>0.75</v>
       </c>
       <c r="Z5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA5" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8" t="s">
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="10" t="n">
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="11" t="n">
         <v>0.75</v>
       </c>
-      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -5154,10 +4953,10 @@
         <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>116</v>
@@ -5178,10 +4977,10 @@
         <v>154</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>149</v>
@@ -5193,25 +4992,28 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="8" t="s">
-        <v>168</v>
+      <c r="Y6" s="8" t="n">
+        <v>0.75</v>
       </c>
       <c r="Z6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8" t="s">
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="10" t="n">
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="11" t="n">
         <v>0.75</v>
       </c>
-      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -5228,10 +5030,10 @@
         <v>58</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>116</v>
@@ -5252,501 +5054,665 @@
         <v>154</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>116</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="8" t="s">
-        <v>168</v>
+      <c r="Y7" s="8" t="n">
+        <v>0.75</v>
       </c>
       <c r="Z7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8" t="s">
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="10" t="n">
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="11" t="n">
         <v>0.75</v>
       </c>
-      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:L4,H6:J7,Q4:X4,H2:X3,H5:X5,M6:X7,Y2:AG7">
-    <cfRule type="containsText" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:L4,Q4:X4,H2:X3,H5:X5,H6:J7,M6:X7,Y2:AG7">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$AW2="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$AW2="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$AW2="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>$AW2="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>$AW2="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>$AW2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G5:L5">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>$AW5="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>$AW5="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>$AW5="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>$AW5="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>$AW5="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>$AW5&lt;&gt;""</formula>
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>$AX5="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>$AX5="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>$AX5="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>$AX5="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>$AX5="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>$AX5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:L5">
-    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
+    <cfRule type="containsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:J6">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>$AW6="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>$AW6="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>$AW6="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>$AW6="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>$AW6="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>$AW6&lt;&gt;""</formula>
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$AX6="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$AX6="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$AX6="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$AX6="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>$AX6="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$AX6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:J6">
-    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="20"/>
+    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:J7">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>$AW7="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
-      <formula>$AW7="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
-      <formula>$AW7="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
-      <formula>$AW7="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>$AW7="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>$AW7&lt;&gt;""</formula>
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$AX7="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$AX7="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>$AX7="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>$AX7="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>$AX7="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>$AX7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:J7">
-    <cfRule type="containsText" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="27"/>
+    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="containsText" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="28"/>
+    <cfRule type="containsText" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>$AW2="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>$AW2="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>$AW2="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
-      <formula>$AW2="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>$AW2="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>$AW2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:X2">
-    <cfRule type="containsText" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:X2">
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
-      <formula>$AW2="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>$AW2="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>$AW2="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>$AW2="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>$AW2="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>$AW2&lt;&gt;""</formula>
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>$AX2="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>$AX2="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>$AX2="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>$AX2="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>$AX2="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+      <formula>$AX2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:Y2,N2:R2">
+    <cfRule type="containsText" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:Y2,N2:R2">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>$AX2="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+      <formula>$AX2="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>$AX2="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>$AX2="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>$AX2="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>$AX2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:X4">
-    <cfRule type="containsText" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="42"/>
+    <cfRule type="containsText" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:X4">
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>$AW4="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>$AW4="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>$AW4="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
-      <formula>$AW4="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>$AW4="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>$AW4&lt;&gt;""</formula>
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+      <formula>$AX4="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+      <formula>$AX4="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+      <formula>$AX4="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>$AX4="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+      <formula>$AX4="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+      <formula>$AX4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:R3">
-    <cfRule type="containsText" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="49"/>
+    <cfRule type="containsText" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:R3">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>$AW3="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>$AW3="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
-      <formula>$AW3="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
-      <formula>$AW3="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
-      <formula>$AW3="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>$AW3&lt;&gt;""</formula>
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+      <formula>$AX3="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+      <formula>$AX3="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+      <formula>$AX3="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+      <formula>$AX3="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+      <formula>$AX3="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+      <formula>$AX3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:V5">
-    <cfRule type="containsText" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="56"/>
+    <cfRule type="containsText" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:V5">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
-      <formula>$AW5="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
-      <formula>$AW5="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
-      <formula>$AW5="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
-      <formula>$AW5="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
-      <formula>$AW5="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
-      <formula>$AW5&lt;&gt;""</formula>
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>$AX5="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>$AX5="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>$AX5="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>$AX5="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>$AX5="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+      <formula>$AX5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="63"/>
+    <cfRule type="containsText" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
-      <formula>$AW5="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>$AW5="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
-      <formula>$AW5="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
-      <formula>$AW5="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
-      <formula>$AW5="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
-      <formula>$AW5&lt;&gt;""</formula>
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+      <formula>$AX5="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+      <formula>$AX5="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+      <formula>$AX5="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+      <formula>$AX5="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+      <formula>$AX5="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+      <formula>$AX5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:P5">
-    <cfRule type="containsText" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="70"/>
+    <cfRule type="containsText" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:P5">
-    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
-      <formula>$AW5="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
-      <formula>$AW5="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
-      <formula>$AW5="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
-      <formula>$AW5="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
-      <formula>$AW5="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
-      <formula>$AW5&lt;&gt;""</formula>
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+      <formula>$AX5="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+      <formula>$AX5="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+      <formula>$AX5="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+      <formula>$AX5="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+      <formula>$AX5="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+      <formula>$AX5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
-      <formula>$AW7="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
-      <formula>$AW7="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
-      <formula>$AW7="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
-      <formula>$AW7="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
-      <formula>$AW7="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
-      <formula>$AW7&lt;&gt;""</formula>
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+      <formula>$AX7="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+      <formula>$AX7="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+      <formula>$AX7="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+      <formula>$AX7="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+      <formula>$AX7="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
+      <formula>$AX7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="83"/>
+    <cfRule type="containsText" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsText" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="84"/>
+    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
-      <formula>$AW6="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
-      <formula>$AW6="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
-      <formula>$AW6="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
-      <formula>$AW6="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
-      <formula>$AW6="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
-      <formula>$AW6&lt;&gt;""</formula>
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+      <formula>$AX6="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+      <formula>$AX6="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+      <formula>$AX6="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
+      <formula>$AX6="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
+      <formula>$AX6="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
+      <formula>$AX6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:P6">
-    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="91"/>
+    <cfRule type="containsText" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:P6">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
-      <formula>$AW6="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
-      <formula>$AW6="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
-      <formula>$AW6="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
-      <formula>$AW6="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
-      <formula>$AW6="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
-      <formula>$AW6&lt;&gt;""</formula>
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
+      <formula>$AX6="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
+      <formula>$AX6="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
+      <formula>$AX6="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
+      <formula>$AX6="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+      <formula>$AX6="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
+      <formula>$AX6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="98"/>
+    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
-      <formula>$AW7="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
-      <formula>$AW7="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
-      <formula>$AW7="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
-      <formula>$AW7="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
-      <formula>$AW7="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
-      <formula>$AW7&lt;&gt;""</formula>
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
+      <formula>$AX7="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
+      <formula>$AX7="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
+      <formula>$AX7="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
+      <formula>$AX7="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
+      <formula>$AX7="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+      <formula>$AX7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:P7">
-    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="105"/>
+    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:P7">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
-      <formula>$AW7="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
-      <formula>$AW7="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
-      <formula>$AW7="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
-      <formula>$AW7="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="110">
-      <formula>$AW7="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
-      <formula>$AW7&lt;&gt;""</formula>
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
+      <formula>$AX7="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
+      <formula>$AX7="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
+      <formula>$AX7="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
+      <formula>$AX7="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
+      <formula>$AX7="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
+      <formula>$AX7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:P7">
-    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="112"/>
+    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:P7">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
-      <formula>$AW7="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
-      <formula>$AW7="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
-      <formula>$AW7="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
-      <formula>$AW7="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
-      <formula>$AW7="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
-      <formula>$AW7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:T6">
-    <cfRule type="containsText" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:T6">
-    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
-      <formula>$AW6="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
-      <formula>$AW6="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
-      <formula>$AW6="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
-      <formula>$AW6="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
-      <formula>$AW6="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
-      <formula>$AW6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:T7">
-    <cfRule type="containsText" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:T7">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
-      <formula>$AW7="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
-      <formula>$AW7="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
-      <formula>$AW7="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
-      <formula>$AW7="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
-      <formula>$AW7="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="132">
-      <formula>$AW7&lt;&gt;""</formula>
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
+      <formula>$AX7="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
+      <formula>$AX7="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
+      <formula>$AX7="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
+      <formula>$AX7="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
+      <formula>$AX7="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
+      <formula>$AX7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:T6">
+    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:T6">
+    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
+      <formula>$AX6="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
+      <formula>$AX6="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
+      <formula>$AX6="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
+      <formula>$AX6="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
+      <formula>$AX6="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
+      <formula>$AX6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:T7">
+    <cfRule type="containsText" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:T7">
+    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
+      <formula>$AX7="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
+      <formula>$AX7="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="110">
+      <formula>$AX7="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
+      <formula>$AX7="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
+      <formula>$AX7="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
+      <formula>$AX7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="133">
-      <formula>$AW7="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134">
-      <formula>$AW7="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
-      <formula>$AW7="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="136">
-      <formula>$AW7="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137">
-      <formula>$AW7="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
-      <formula>$AW7&lt;&gt;""</formula>
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
+      <formula>$AX7="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
+      <formula>$AX7="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
+      <formula>$AX7="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
+      <formula>$AX7="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
+      <formula>$AX7="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
+      <formula>$AX7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="containsText" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="139"/>
+    <cfRule type="containsText" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>$AX3="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+      <formula>$AX3="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>$AX3="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>$AX3="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>$AX3="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>$AX3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="containsText" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>$AX4="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+      <formula>$AX4="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>$AX4="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>$AX4="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>$AX4="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>$AX4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5">
+    <cfRule type="containsText" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5">
+    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>$AX5="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+      <formula>$AX5="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>$AX5="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>$AX5="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>$AX5="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>$AX5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="containsText" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>$AX6="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+      <formula>$AX6="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>$AX6="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>$AX6="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>$AX6="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>$AX6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="containsText" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>$AX7="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+      <formula>$AX7="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>$AX7="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>$AX7="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>$AX7="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>$AX7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2">
+    <cfRule type="containsText" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2">
+    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>$AX2="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>$AX2="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>$AX2="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>$AX2="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>$AX2="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+      <formula>$AX2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="containsText" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>$AX6="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>$AX6="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>$AX6="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>$AX6="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>$AX6="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+      <formula>$AX6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="containsText" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>$AX7="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>$AX7="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>$AX7="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>$AX7="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>$AX7="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+      <formula>$AX7&lt;&gt;""</formula>
+    </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5771,17 +5737,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5789,7 +5755,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,7 +5763,7 @@
         <v>137</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,7 +5771,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5856,27 +5822,27 @@
     <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$AG4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$AG4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$AG4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$AG4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$AG4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$AG4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="20"/>
+    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="1"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5895,32 +5861,32 @@
   </sheetPr>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.165991902834"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.31983805668016"/>
@@ -5951,7 +5917,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>117</v>
@@ -6011,8 +5977,8 @@
       <c r="G2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>168</v>
+      <c r="I2" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>133</v>
@@ -6021,7 +5987,7 @@
         <v>128</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6047,8 +6013,8 @@
       <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>168</v>
+      <c r="I3" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>133</v>
@@ -6057,7 +6023,7 @@
         <v>128</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,8 +6049,8 @@
       <c r="G4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>168</v>
+      <c r="I4" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>133</v>
@@ -6093,7 +6059,7 @@
         <v>128</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6119,8 +6085,8 @@
       <c r="G5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>168</v>
+      <c r="I5" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>133</v>
@@ -6129,7 +6095,7 @@
         <v>128</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6155,8 +6121,8 @@
       <c r="G6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>168</v>
+      <c r="I6" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>133</v>
@@ -6165,7 +6131,7 @@
         <v>128</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6188,8 +6154,8 @@
       <c r="H7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>168</v>
+      <c r="I7" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>133</v>
@@ -6198,7 +6164,7 @@
         <v>128</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6221,8 +6187,8 @@
       <c r="H8" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>168</v>
+      <c r="I8" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>133</v>
@@ -6231,7 +6197,7 @@
         <v>128</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6282,50 +6248,50 @@
     <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$AG6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$AG6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$AG6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$AG6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$AG6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$AG6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="20"/>
+    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$AG7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$AG7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$AG7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$AG7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$AG7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$AG7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="containsText" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="27"/>
+    <cfRule type="containsText" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="8"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6351,19 +6317,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.8461538461539"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.49797570850202"/>
@@ -6393,7 +6359,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>117</v>
@@ -6438,10 +6404,10 @@
         <v>50</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>133</v>
@@ -6450,7 +6416,7 @@
         <v>128</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6495,24 +6461,24 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="77.1255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="77.7692307692308"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.31983805668016"/>
@@ -6543,7 +6509,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>117</v>
@@ -6596,8 +6562,8 @@
       <c r="G2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>168</v>
+      <c r="I2" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>133</v>
@@ -6606,7 +6572,7 @@
         <v>128</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6626,8 +6592,8 @@
       <c r="G3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>168</v>
+      <c r="I3" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>133</v>
@@ -6636,7 +6602,7 @@
         <v>128</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,8 +6622,8 @@
       <c r="G4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>168</v>
+      <c r="I4" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>133</v>
@@ -6666,7 +6632,7 @@
         <v>128</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
